--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -27,9 +32,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -39,9 +41,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -127,12 +126,33 @@
   </si>
   <si>
     <t>not as peakers.</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,12 +510,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,17 +533,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,32 +551,32 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -558,12 +584,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -571,47 +597,47 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +651,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -635,13 +661,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>14</v>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -649,7 +675,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -657,7 +683,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -665,7 +691,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -673,7 +699,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -681,7 +707,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -689,7 +715,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -697,7 +723,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -705,7 +731,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -713,7 +739,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -721,10 +747,55 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +808,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,13 +818,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>14</v>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -761,7 +832,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,7 +840,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -777,7 +848,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -785,7 +856,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -793,7 +864,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -801,7 +872,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -809,7 +880,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -817,7 +888,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -825,7 +896,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -833,10 +904,55 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
